--- a/data/fact_data/Jalna/Jalna_May_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_May_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B816C3-72FD-C345-AD93-BD8C62CFFDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4BEE3-EB9C-1A4D-96B8-188ABBB45CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ram_May_19" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="85">
   <si>
     <t>Betadine Sol. 500ml              5%</t>
   </si>
@@ -178,9 +178,6 @@
     <t xml:space="preserve">TOTAL  ANTISEPTIC : </t>
   </si>
   <si>
-    <t>Corion-C  5000 IU-1's ( LGLSI )</t>
-  </si>
-  <si>
     <t>Gutwin 400 Tab 10*10</t>
   </si>
   <si>
@@ -313,30 +310,36 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -347,6 +350,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -486,7 +490,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,6 +554,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -898,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5AA87A-6512-6D46-809A-5AE77B14454E}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -912,31 +923,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -957,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -987,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1017,16 +1028,16 @@
         <v>637</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1047,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1077,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1107,16 +1118,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1137,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1167,16 +1178,16 @@
         <v>1425</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1197,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1227,16 +1238,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1257,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1287,16 +1298,16 @@
         <v>7564</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1317,21 +1328,21 @@
         <v>1248</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1347,16 +1358,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="5">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1374,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1404,16 +1415,16 @@
         <v>5600</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1434,16 +1445,16 @@
         <v>2646</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1464,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1494,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="5">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1524,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1547,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="5">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1577,21 +1588,21 @@
         <v>5104</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="5">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1607,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="5">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1637,16 +1648,16 @@
         <v>3120</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="5">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1667,16 +1678,16 @@
         <v>3840</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="5">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1697,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="5">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1727,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="5">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1757,21 +1768,21 @@
         <v>2150</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -1787,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="5">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1817,21 +1828,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1847,21 +1858,21 @@
         <v>789</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -1877,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="5">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1903,20 +1914,20 @@
         <v>863</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" ref="E34:E65" si="1">B34*D34</f>
+        <f t="shared" ref="E34:E64" si="1">B34*D34</f>
         <v>0</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1930,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1960,16 +1971,16 @@
         <v>2272</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="5">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1990,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="5">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2020,16 +2031,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="5">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2050,16 +2061,16 @@
         <v>168</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2080,16 +2091,16 @@
         <v>3861</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="5">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2110,21 +2121,21 @@
         <v>1358</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2140,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2170,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2200,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="5">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2223,278 +2234,274 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="5">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D46" s="5">
-        <v>984</v>
+        <v>157</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="5">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
         <v>4</v>
       </c>
       <c r="D47" s="5">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="5">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="5">
-        <v>223</v>
+        <v>484</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="5">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>484</v>
-      </c>
+      <c r="A49" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
       <c r="E49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5">
+        <v>769</v>
+      </c>
       <c r="E50" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2307</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="5">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="5">
+        <v>19</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>155</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="5">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="5">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="C51" s="1">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5">
-        <v>769</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="1"/>
-        <v>2307</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="5">
-        <v>19</v>
-      </c>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="5">
-        <v>19</v>
-      </c>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6">
-        <v>155</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="5">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54" s="5">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="29" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="5">
@@ -2502,42 +2509,46 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" s="5">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="29" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="6"/>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>59</v>
+      </c>
       <c r="E56" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G56" s="5">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -2545,29 +2556,29 @@
         <v>74</v>
       </c>
       <c r="B57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="D57" s="6">
+        <v>112</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="5">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -2578,26 +2589,26 @@
         <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D58" s="6">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="5">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -2605,108 +2616,108 @@
         <v>76</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1">
         <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="5">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="1">
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6">
-        <v>80</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="E60" s="5">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G60" s="5">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
+      <c r="D61" s="6">
+        <v>80</v>
+      </c>
       <c r="E61" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="5">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
       <c r="D62" s="6">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="5">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14" x14ac:dyDescent="0.15">
@@ -2720,27 +2731,27 @@
         <v>0</v>
       </c>
       <c r="D63" s="6">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="5">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B64" s="1">
@@ -2749,29 +2760,26 @@
       <c r="C64" s="1">
         <v>0</v>
       </c>
-      <c r="D64" s="6">
-        <v>127</v>
-      </c>
       <c r="E64" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64" s="5">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="24" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -2779,26 +2787,29 @@
       <c r="C65" s="1">
         <v>0</v>
       </c>
+      <c r="D65" s="5">
+        <v>30</v>
+      </c>
       <c r="E65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E65:E68" si="2">B65*D65</f>
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="5">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -2806,56 +2817,56 @@
       <c r="C66" s="1">
         <v>0</v>
       </c>
-      <c r="D66" s="5">
-        <v>30</v>
-      </c>
       <c r="E66" s="5">
-        <f t="shared" ref="E66:E69" si="2">B66*D66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="5">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
-        <v>35</v>
+      <c r="A67" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <v>48</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G67" s="5">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -2864,65 +2875,35 @@
         <v>0</v>
       </c>
       <c r="D68" s="5">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="5">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>170</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="5">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s">
-        <v>61</v>
-      </c>
-      <c r="I69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="27" t="s">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2936,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D68FE-6DE7-5F4B-8343-41FAE8291579}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2948,31 +2929,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2993,16 +2974,16 @@
         <v>270</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3023,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3053,16 +3034,16 @@
         <v>2912</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3083,16 +3064,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3113,16 +3094,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3143,16 +3124,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3173,16 +3154,16 @@
         <v>880</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3203,16 +3184,16 @@
         <v>912</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3233,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3263,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3293,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3323,16 +3304,16 @@
         <v>8296</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3353,21 +3334,21 @@
         <v>2392</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -3383,16 +3364,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="5">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3410,16 +3391,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3440,16 +3421,16 @@
         <v>6930</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3470,16 +3451,16 @@
         <v>7203</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3500,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3530,21 +3511,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="5">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -3560,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3583,16 +3564,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="5">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3613,21 +3594,21 @@
         <v>7656</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="5">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3643,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="5">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3673,16 +3654,16 @@
         <v>4320</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="5">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3703,16 +3684,16 @@
         <v>9120</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="5">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3733,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="5">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3763,16 +3744,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="5">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3793,21 +3774,21 @@
         <v>1720</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -3823,21 +3804,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="5">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3853,21 +3834,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -3883,21 +3864,21 @@
         <v>789</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -3913,16 +3894,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="5">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3943,16 +3924,16 @@
         <v>863</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3966,16 +3947,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -3996,16 +3977,16 @@
         <v>2272</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="5">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4026,16 +4007,16 @@
         <v>5468</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="5">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4056,16 +4037,16 @@
         <v>2865</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="5">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4086,16 +4067,16 @@
         <v>2520</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4116,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="5">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4146,21 +4127,21 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -4176,21 +4157,21 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -4206,21 +4187,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
@@ -4234,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="5">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4257,22 +4238,20 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="5">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="1">
         <v>0</v>
       </c>
@@ -4287,16 +4266,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="5">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4317,16 +4296,16 @@
         <v>2041</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="5">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4347,16 +4326,16 @@
         <v>892</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="5">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4377,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4400,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="5">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4430,16 +4409,16 @@
         <v>4614</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="5">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4454,16 +4433,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" s="5">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4484,16 +4463,16 @@
         <v>155</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="5">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4508,16 +4487,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54" s="5">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4536,16 +4515,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" s="5">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4560,21 +4539,21 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G56" s="5">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>12</v>
@@ -4590,21 +4569,21 @@
         <v>708</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="5">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -4620,21 +4599,21 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="5">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -4650,21 +4629,21 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="5">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
@@ -4680,21 +4659,21 @@
         <v>2400</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G60" s="5">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4703,21 +4682,21 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="5">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4729,21 +4708,21 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="5">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -4759,21 +4738,21 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="5">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -4789,21 +4768,21 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64" s="5">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -4816,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="5">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4846,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="5">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4873,21 +4852,21 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G67" s="5">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -4903,21 +4882,21 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="5">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -4933,16 +4912,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G69" s="5">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -4956,10 +4935,10 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -4976,8 +4955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBDABAD-0C85-2546-8CAF-66C41A70F3E4}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4988,31 +4967,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5033,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5063,16 +5042,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5093,16 +5072,16 @@
         <v>8008</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5123,16 +5102,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5153,16 +5132,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5183,16 +5162,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5213,16 +5192,16 @@
         <v>880</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5243,16 +5222,16 @@
         <v>969</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5273,21 +5252,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -5303,16 +5282,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5333,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5363,16 +5342,16 @@
         <v>8418</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5393,21 +5372,21 @@
         <v>624</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="5">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5423,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="5">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5450,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5480,16 +5459,16 @@
         <v>3150</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="5">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5510,16 +5489,16 @@
         <v>7105</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="5">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5540,16 +5519,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="5">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5570,21 +5549,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="5">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -5600,16 +5579,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5623,16 +5602,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="5">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5653,21 +5632,21 @@
         <v>6380</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="5">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -5683,16 +5662,16 @@
         <v>68</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="5">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5713,16 +5692,16 @@
         <v>1200</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="5">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5743,16 +5722,16 @@
         <v>2880</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="5">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5773,16 +5752,16 @@
         <v>1040</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="5">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5803,16 +5782,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="5">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5833,21 +5812,21 @@
         <v>2580</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="5">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -5863,21 +5842,21 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="5">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -5893,21 +5872,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="5">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -5923,21 +5902,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="5">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -5953,16 +5932,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="5">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5983,16 +5962,16 @@
         <v>1726</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6006,16 +5985,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6036,16 +6015,16 @@
         <v>3408</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="5">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6066,16 +6045,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="5">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6096,16 +6075,16 @@
         <v>955</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" s="5">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6126,16 +6105,16 @@
         <v>1008</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G39" s="5">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6156,16 +6135,16 @@
         <v>2574</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="5">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6186,21 +6165,21 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="5">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -6216,21 +6195,21 @@
         <v>1270</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42" s="5">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -6246,21 +6225,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="5">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -6276,16 +6255,16 @@
         <v>755</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="5">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6299,22 +6278,20 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="5">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="1">
         <v>0</v>
       </c>
@@ -6329,16 +6306,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="5">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6359,16 +6336,16 @@
         <v>1570</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="5">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6389,16 +6366,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="5">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6419,16 +6396,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="5">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6442,16 +6419,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="5">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6472,16 +6449,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="5">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6496,16 +6473,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" s="5">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6526,16 +6503,16 @@
         <v>465</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="5">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6550,16 +6527,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G54" s="5">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6578,16 +6555,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" s="5">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6602,21 +6579,21 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G56" s="5">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>8</v>
@@ -6632,21 +6609,21 @@
         <v>472</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57" s="5">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -6662,21 +6639,21 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="5">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <v>9</v>
@@ -6692,21 +6669,21 @@
         <v>2025</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="5">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -6722,21 +6699,21 @@
         <v>160</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G60" s="5">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6745,21 +6722,21 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="5">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6771,21 +6748,21 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="5">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1">
@@ -6799,21 +6776,21 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="5">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
@@ -6827,21 +6804,21 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G64" s="5">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1">
@@ -6852,16 +6829,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="5">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6880,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G66" s="5">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6905,21 +6882,21 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G67" s="5">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1">
@@ -6933,21 +6910,21 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G68" s="5">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1">
@@ -6961,16 +6938,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G69" s="5">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -6984,10 +6961,10 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -7004,43 +6981,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4B5EBD-FCD0-3743-8E5C-A939DB16899B}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7061,16 +7039,16 @@
         <v>270</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="5">
+        <v>71</v>
+      </c>
+      <c r="G2" s="29">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7091,16 +7069,16 @@
         <v>711</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="5">
+        <v>71</v>
+      </c>
+      <c r="G3" s="29">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7121,16 +7099,16 @@
         <v>15015</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="5">
+        <v>71</v>
+      </c>
+      <c r="G4" s="29">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7151,16 +7129,16 @@
         <v>688</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5">
+        <v>71</v>
+      </c>
+      <c r="G5" s="29">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7181,16 +7159,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="5">
+        <v>71</v>
+      </c>
+      <c r="G6" s="29">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7211,16 +7189,16 @@
         <v>732</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="5">
+        <v>71</v>
+      </c>
+      <c r="G7" s="29">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7241,16 +7219,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="5">
+        <v>71</v>
+      </c>
+      <c r="G8" s="29">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7271,16 +7249,16 @@
         <v>2736</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="5">
+        <v>71</v>
+      </c>
+      <c r="G9" s="29">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7301,21 +7279,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="5">
+        <v>71</v>
+      </c>
+      <c r="G10" s="29">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -7331,16 +7309,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="5">
+        <v>71</v>
+      </c>
+      <c r="G11" s="29">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7361,16 +7339,16 @@
         <v>9143</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="5">
+        <v>71</v>
+      </c>
+      <c r="G12" s="29">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7391,16 +7369,16 @@
         <v>16043</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="5">
+        <v>71</v>
+      </c>
+      <c r="G13" s="29">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7421,21 +7399,21 @@
         <v>728</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="5">
+        <v>71</v>
+      </c>
+      <c r="G14" s="29">
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -7451,16 +7429,16 @@
         <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="5">
+        <v>71</v>
+      </c>
+      <c r="G15" s="29">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7478,16 +7456,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="5">
+        <v>71</v>
+      </c>
+      <c r="G16" s="29">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7508,16 +7486,16 @@
         <v>5250</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="5">
+        <v>71</v>
+      </c>
+      <c r="G17" s="29">
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7538,16 +7516,16 @@
         <v>12593</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="5">
+        <v>71</v>
+      </c>
+      <c r="G18" s="29">
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7568,16 +7546,16 @@
         <v>1960</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="5">
+        <v>71</v>
+      </c>
+      <c r="G19" s="29">
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7598,21 +7576,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="5">
+        <v>71</v>
+      </c>
+      <c r="G20" s="29">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -7628,16 +7606,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="5">
+        <v>71</v>
+      </c>
+      <c r="G21" s="29">
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7651,16 +7629,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="5">
+        <v>71</v>
+      </c>
+      <c r="G22" s="29">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7681,21 +7659,21 @@
         <v>1914</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="5">
+        <v>71</v>
+      </c>
+      <c r="G23" s="29">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -7711,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="5">
+        <v>71</v>
+      </c>
+      <c r="G24" s="29">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7741,16 +7719,16 @@
         <v>8400</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="5">
+        <v>71</v>
+      </c>
+      <c r="G25" s="29">
         <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7771,16 +7749,16 @@
         <v>4800</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="5">
+        <v>71</v>
+      </c>
+      <c r="G26" s="29">
         <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7801,16 +7779,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="5">
+        <v>71</v>
+      </c>
+      <c r="G27" s="29">
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7831,16 +7809,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="5">
+        <v>71</v>
+      </c>
+      <c r="G28" s="29">
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -7861,21 +7839,21 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="5">
+        <v>71</v>
+      </c>
+      <c r="G29" s="29">
         <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1">
         <v>12</v>
@@ -7891,21 +7869,21 @@
         <v>4320</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="5">
+        <v>71</v>
+      </c>
+      <c r="G30" s="29">
         <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7921,21 +7899,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="5">
+        <v>71</v>
+      </c>
+      <c r="G31" s="29">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -7951,21 +7929,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="5">
+        <v>71</v>
+      </c>
+      <c r="G32" s="29">
         <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -7981,16 +7959,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="5">
+        <v>71</v>
+      </c>
+      <c r="G33" s="29">
         <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8011,16 +7989,16 @@
         <v>863</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="5">
+        <v>71</v>
+      </c>
+      <c r="G34" s="29">
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8034,16 +8012,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="5">
+        <v>71</v>
+      </c>
+      <c r="G35" s="29">
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8064,16 +8042,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="5">
+        <v>71</v>
+      </c>
+      <c r="G36" s="29">
         <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8094,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="5">
+        <v>71</v>
+      </c>
+      <c r="G37" s="29">
         <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8124,16 +8102,16 @@
         <v>1910</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="5">
+        <v>71</v>
+      </c>
+      <c r="G38" s="29">
         <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8154,16 +8132,16 @@
         <v>1848</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="5">
+        <v>71</v>
+      </c>
+      <c r="G39" s="29">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8184,16 +8162,16 @@
         <v>3861</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="5">
+        <v>71</v>
+      </c>
+      <c r="G40" s="29">
         <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8214,21 +8192,21 @@
         <v>2716</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="5">
+        <v>71</v>
+      </c>
+      <c r="G41" s="29">
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -8244,21 +8222,21 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="5">
+        <v>71</v>
+      </c>
+      <c r="G42" s="29">
         <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -8274,21 +8252,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="5">
+        <v>71</v>
+      </c>
+      <c r="G43" s="29">
         <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -8304,16 +8282,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="5">
+        <v>71</v>
+      </c>
+      <c r="G44" s="29">
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8327,22 +8305,20 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="5">
+        <v>71</v>
+      </c>
+      <c r="G45" s="29">
         <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="1">
         <v>0</v>
       </c>
@@ -8357,16 +8333,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="5">
+        <v>71</v>
+      </c>
+      <c r="G46" s="29">
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8387,16 +8363,16 @@
         <v>785</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="5">
+        <v>71</v>
+      </c>
+      <c r="G47" s="29">
         <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8417,16 +8393,16 @@
         <v>446</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="5">
+        <v>71</v>
+      </c>
+      <c r="G48" s="29">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8447,16 +8423,16 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="5">
+        <v>71</v>
+      </c>
+      <c r="G49" s="29">
         <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8470,16 +8446,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="5">
+        <v>71</v>
+      </c>
+      <c r="G50" s="29">
         <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8500,16 +8476,16 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="5">
+        <v>71</v>
+      </c>
+      <c r="G51" s="29">
         <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8524,16 +8500,16 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="5">
+        <v>71</v>
+      </c>
+      <c r="G52" s="29">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8554,16 +8530,16 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="5">
+        <v>71</v>
+      </c>
+      <c r="G53" s="29">
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8578,16 +8554,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="5">
+        <v>71</v>
+      </c>
+      <c r="G54" s="29">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8606,16 +8582,16 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" s="5">
+        <v>71</v>
+      </c>
+      <c r="G55" s="29">
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8630,21 +8606,21 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="5">
+        <v>71</v>
+      </c>
+      <c r="G56" s="29">
         <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1">
         <v>9</v>
@@ -8660,21 +8636,21 @@
         <v>531</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" s="5">
+        <v>71</v>
+      </c>
+      <c r="G57" s="29">
         <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -8690,21 +8666,21 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="5">
+        <v>71</v>
+      </c>
+      <c r="G58" s="29">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -8720,21 +8696,21 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" s="5">
+        <v>71</v>
+      </c>
+      <c r="G59" s="29">
         <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1">
         <v>32</v>
@@ -8750,21 +8726,21 @@
         <v>2560</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" s="5">
+        <v>71</v>
+      </c>
+      <c r="G60" s="29">
         <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -8773,21 +8749,21 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="5">
+        <v>71</v>
+      </c>
+      <c r="G61" s="29">
         <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8799,21 +8775,21 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="5">
+        <v>71</v>
+      </c>
+      <c r="G62" s="29">
         <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -8829,21 +8805,21 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" s="5">
+        <v>71</v>
+      </c>
+      <c r="G63" s="29">
         <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -8859,21 +8835,21 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" s="5">
+        <v>71</v>
+      </c>
+      <c r="G64" s="29">
         <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -8886,16 +8862,16 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" s="5">
+        <v>71</v>
+      </c>
+      <c r="G65" s="29">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8916,16 +8892,16 @@
         <v>180</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" s="5">
+        <v>71</v>
+      </c>
+      <c r="G66" s="29">
         <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -8943,21 +8919,21 @@
         <v>0</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="5">
+        <v>71</v>
+      </c>
+      <c r="G67" s="29">
         <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -8973,21 +8949,21 @@
         <v>0</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" s="5">
+        <v>71</v>
+      </c>
+      <c r="G68" s="29">
         <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -9003,16 +8979,16 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="5">
+        <v>71</v>
+      </c>
+      <c r="G69" s="29">
         <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -9024,12 +9000,12 @@
         <v>0</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="G70" s="29"/>
       <c r="H70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
